--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Creative Writing Auto Scoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B27927-8F67-485A-B4C5-7A198AF9D5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131E4E7-3B4A-4725-904E-25F66A62D142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33640" yWindow="-11640" windowWidth="27800" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,31 +19,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">originality!$A$1:$E$366</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="939">
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>学号</t>
-  </si>
-  <si>
-    <t>文本</t>
   </si>
   <si>
     <t>originality</t>
@@ -24506,6 +24488,14 @@
       </rPr>
       <t>岁以上老年人免费，随即有专门的博物馆工作人员带领导览或者每一展品周围设置按键，一按即可听取导览，且老年人入馆参观时可每人发放一放大镜可用于参观游览观看展品内容等。且就乘车路线而言，可设置特定的摆渡车，可将老人直接送达指定博物馆</t>
     </r>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -24942,8 +24932,8 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D363" sqref="D363"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -24957,22 +24947,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="104">
@@ -24983,10 +24973,10 @@
         <v>20207520</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6">
         <v>2</v>
@@ -25003,10 +24993,10 @@
         <v>20207023</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="6">
         <v>3.5</v>
@@ -25023,10 +25013,10 @@
         <v>20207027</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6">
         <v>4.5</v>
@@ -25043,10 +25033,10 @@
         <v>20207009</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E5" s="6">
         <v>5</v>
@@ -25063,10 +25053,10 @@
         <v>20207051</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -25083,10 +25073,10 @@
         <v>20207503</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
         <v>3.5</v>
@@ -25103,10 +25093,10 @@
         <v>20207557</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E8" s="6">
         <v>3.5</v>
@@ -25123,10 +25113,10 @@
         <v>20207548</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -25143,10 +25133,10 @@
         <v>20207543</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E10" s="6">
         <v>5.5</v>
@@ -25163,10 +25153,10 @@
         <v>20207031</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E11" s="6">
         <v>3.5</v>
@@ -25183,10 +25173,10 @@
         <v>20207551</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>5.5</v>
@@ -25203,10 +25193,10 @@
         <v>20207521</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E13" s="6">
         <v>5.5</v>
@@ -25223,10 +25213,10 @@
         <v>20207540</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -25243,10 +25233,10 @@
         <v>20207512</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -25263,10 +25253,10 @@
         <v>20207581</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -25283,10 +25273,10 @@
         <v>20207567</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -25303,10 +25293,10 @@
         <v>20207522</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -25323,10 +25313,10 @@
         <v>20207580</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E19" s="6">
         <v>6</v>
@@ -25343,10 +25333,10 @@
         <v>20207073</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E20" s="6">
         <v>3.5</v>
@@ -25363,10 +25353,10 @@
         <v>20207531</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E21" s="6">
         <v>3.5</v>
@@ -25383,10 +25373,10 @@
         <v>20207563</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E22" s="6">
         <v>4</v>
@@ -25403,10 +25393,10 @@
         <v>20207071</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E23" s="6">
         <v>5.5</v>
@@ -25423,10 +25413,10 @@
         <v>20207047</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E24" s="6">
         <v>4</v>
@@ -25443,10 +25433,10 @@
         <v>20207524</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E25" s="6">
         <v>3.5</v>
@@ -25463,10 +25453,10 @@
         <v>20207054</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E26" s="6">
         <v>4</v>
@@ -25483,10 +25473,10 @@
         <v>20207537</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E27" s="6">
         <v>4</v>
@@ -25503,10 +25493,10 @@
         <v>20207586</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E28" s="6">
         <v>5.5</v>
@@ -25523,10 +25513,10 @@
         <v>20207550</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E29" s="6">
         <v>0.5</v>
@@ -25543,10 +25533,10 @@
         <v>20207528</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E30" s="6">
         <v>4</v>
@@ -25563,10 +25553,10 @@
         <v>20207005</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E31" s="6">
         <v>4</v>
@@ -25583,10 +25573,10 @@
         <v>20207544</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E32" s="6">
         <v>7.5</v>
@@ -25603,10 +25593,10 @@
         <v>20207028</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -25623,10 +25613,10 @@
         <v>20207530</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="6">
         <v>6.5</v>
@@ -25643,10 +25633,10 @@
         <v>20207509</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -25663,10 +25653,10 @@
         <v>20207021</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -25683,10 +25673,10 @@
         <v>20207067</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E37" s="6">
         <v>4.5</v>
@@ -25703,10 +25693,10 @@
         <v>20207507</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -25723,10 +25713,10 @@
         <v>20207505</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E39" s="6">
         <v>3.5</v>
@@ -25743,10 +25733,10 @@
         <v>20207562</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="6">
         <v>7</v>
@@ -25763,10 +25753,10 @@
         <v>20207070</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E41" s="6">
         <v>5.5</v>
@@ -25783,10 +25773,10 @@
         <v>20207075</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E42" s="6">
         <v>4</v>
@@ -25803,10 +25793,10 @@
         <v>20207010</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E43" s="6">
         <v>4</v>
@@ -25823,10 +25813,10 @@
         <v>20207014</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E44" s="6">
         <v>4.5</v>
@@ -25843,10 +25833,10 @@
         <v>20207036</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E45" s="6">
         <v>5.5</v>
@@ -25863,10 +25853,10 @@
         <v>20207066</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E46" s="6">
         <v>4</v>
@@ -25883,10 +25873,10 @@
         <v>20207516</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E47" s="6">
         <v>4</v>
@@ -25903,10 +25893,10 @@
         <v>20207546</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E48" s="6">
         <v>4</v>
@@ -25923,10 +25913,10 @@
         <v>20207538</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E49" s="6">
         <v>5</v>
@@ -25943,10 +25933,10 @@
         <v>20207042</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E50" s="6">
         <v>8</v>
@@ -25963,10 +25953,10 @@
         <v>20207050</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E51" s="6">
         <v>3.5</v>
@@ -25983,10 +25973,10 @@
         <v>20207049</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E52" s="6">
         <v>4.5</v>
@@ -26003,10 +25993,10 @@
         <v>20207076</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E53" s="6">
         <v>4</v>
@@ -26023,10 +26013,10 @@
         <v>20207001</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E54" s="6">
         <v>4.5</v>
@@ -26043,10 +26033,10 @@
         <v>20207515</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E55" s="6">
         <v>4.5</v>
@@ -26063,10 +26053,10 @@
         <v>20207044</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E56" s="6">
         <v>4</v>
@@ -26083,10 +26073,10 @@
         <v>20207573</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E57" s="6">
         <v>5</v>
@@ -26103,10 +26093,10 @@
         <v>20207013</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E58" s="6">
         <v>0.5</v>
@@ -26123,10 +26113,10 @@
         <v>20207074</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -26143,10 +26133,10 @@
         <v>20207999</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E60" s="6">
         <v>3.5</v>
@@ -26163,10 +26153,10 @@
         <v>20207052</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E61" s="6">
         <v>4.5</v>
@@ -26183,10 +26173,10 @@
         <v>20207566</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E62" s="6">
         <v>6.5</v>
@@ -26203,10 +26193,10 @@
         <v>20207040</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E63" s="6">
         <v>3.5</v>
@@ -26223,10 +26213,10 @@
         <v>20207568</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E64" s="6">
         <v>4</v>
@@ -26243,10 +26233,10 @@
         <v>20207542</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E65" s="6">
         <v>4.5</v>
@@ -26263,10 +26253,10 @@
         <v>20207572</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -26283,10 +26273,10 @@
         <v>20207525</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E67" s="6">
         <v>4</v>
@@ -26303,10 +26293,10 @@
         <v>20207588</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E68" s="6">
         <v>4</v>
@@ -26323,10 +26313,10 @@
         <v>20207561</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E69" s="6">
         <v>5.5</v>
@@ -26343,10 +26333,10 @@
         <v>20207015</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E70" s="6">
         <v>4.5</v>
@@ -26363,10 +26353,10 @@
         <v>20207025</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E71" s="6">
         <v>4</v>
@@ -26383,10 +26373,10 @@
         <v>20207056</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E72" s="6">
         <v>4</v>
@@ -26403,10 +26393,10 @@
         <v>20207037</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -26423,10 +26413,10 @@
         <v>20207552</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E74" s="6">
         <v>4.5</v>
@@ -26443,10 +26433,10 @@
         <v>20207553</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E75" s="6">
         <v>4</v>
@@ -26463,10 +26453,10 @@
         <v>20207523</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E76" s="6">
         <v>4</v>
@@ -26483,10 +26473,10 @@
         <v>20207510</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E77" s="6">
         <v>6</v>
@@ -26503,10 +26493,10 @@
         <v>20207589</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E78" s="6">
         <v>4</v>
@@ -26523,10 +26513,10 @@
         <v>20207017</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E79" s="6">
         <v>5</v>
@@ -26543,10 +26533,10 @@
         <v>20207079</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E80" s="6">
         <v>3.5</v>
@@ -26563,10 +26553,10 @@
         <v>20207539</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E81" s="6">
         <v>4</v>
@@ -26583,10 +26573,10 @@
         <v>20207504</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E82" s="6">
         <v>4</v>
@@ -26603,10 +26593,10 @@
         <v>20207032</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E83" s="6">
         <v>6</v>
@@ -26623,10 +26613,10 @@
         <v>20207069</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84" s="6">
         <v>4</v>
@@ -26643,10 +26633,10 @@
         <v>20207003</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E85" s="6">
         <v>4.5</v>
@@ -26663,10 +26653,10 @@
         <v>20207059</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E86" s="6">
         <v>3.5</v>
@@ -26683,10 +26673,10 @@
         <v>20207576</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E87" s="6">
         <v>5.5</v>
@@ -26703,10 +26693,10 @@
         <v>20207060</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E88" s="6">
         <v>4</v>
@@ -26723,10 +26713,10 @@
         <v>20207533</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E89" s="6">
         <v>1.5</v>
@@ -26743,10 +26733,10 @@
         <v>20207571</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" s="6">
         <v>4.5</v>
@@ -26763,10 +26753,10 @@
         <v>20207035</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E91" s="6">
         <v>4.5</v>
@@ -26783,10 +26773,10 @@
         <v>20207584</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E92" s="6">
         <v>2.5</v>
@@ -26803,10 +26793,10 @@
         <v>20207508</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E93" s="6">
         <v>6</v>
@@ -26823,10 +26813,10 @@
         <v>20207045</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E94" s="6">
         <v>6</v>
@@ -26843,10 +26833,10 @@
         <v>20207554</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E95" s="6">
         <v>8.5</v>
@@ -26863,10 +26853,10 @@
         <v>20207511</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E96" s="6">
         <v>8</v>
@@ -26883,10 +26873,10 @@
         <v>20207585</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E97" s="6">
         <v>5</v>
@@ -26903,10 +26893,10 @@
         <v>20207026</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E98" s="6">
         <v>9</v>
@@ -26923,10 +26913,10 @@
         <v>20207062</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E99" s="6">
         <v>4</v>
@@ -26943,10 +26933,10 @@
         <v>20207578</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E100" s="6">
         <v>8</v>
@@ -26963,10 +26953,10 @@
         <v>20207055</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E101" s="6">
         <v>4.5</v>
@@ -26983,10 +26973,10 @@
         <v>20207519</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E102" s="6">
         <v>4</v>
@@ -27003,10 +26993,10 @@
         <v>20207072</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E103" s="6">
         <v>4.5</v>
@@ -27023,10 +27013,10 @@
         <v>20207501</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E104" s="6">
         <v>4</v>
@@ -27043,10 +27033,10 @@
         <v>20207513</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
@@ -27063,10 +27053,10 @@
         <v>20207057</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E106" s="6">
         <v>4.5</v>
@@ -27083,10 +27073,10 @@
         <v>20207559</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E107" s="6">
         <v>4</v>
@@ -27103,10 +27093,10 @@
         <v>20207048</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E108" s="6">
         <v>4.5</v>
@@ -27123,10 +27113,10 @@
         <v>20207591</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E109" s="6">
         <v>6</v>
@@ -27143,10 +27133,10 @@
         <v>20207002</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E110" s="6">
         <v>4</v>
@@ -27163,10 +27153,10 @@
         <v>20207038</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E111" s="6">
         <v>4</v>
@@ -27183,10 +27173,10 @@
         <v>20207582</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E112" s="6">
         <v>3.5</v>
@@ -27203,10 +27193,10 @@
         <v>20207579</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E113" s="6">
         <v>5</v>
@@ -27223,10 +27213,10 @@
         <v>20207016</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E114" s="6">
         <v>4</v>
@@ -27243,10 +27233,10 @@
         <v>20207558</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E115" s="6">
         <v>4.5</v>
@@ -27263,10 +27253,10 @@
         <v>20207536</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E116" s="6">
         <v>5</v>
@@ -27283,10 +27273,10 @@
         <v>20207575</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E117" s="6">
         <v>4</v>
@@ -27303,10 +27293,10 @@
         <v>20207046</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -27323,10 +27313,10 @@
         <v>20207560</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E119" s="6">
         <v>0.5</v>
@@ -27343,10 +27333,10 @@
         <v>20207506</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E120" s="6">
         <v>4</v>
@@ -27363,10 +27353,10 @@
         <v>20207583</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E121" s="6">
         <v>4</v>
@@ -27383,10 +27373,10 @@
         <v>20207030</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E122" s="6">
         <v>4.5</v>
@@ -27403,10 +27393,10 @@
         <v>20207007</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E123" s="6">
         <v>3</v>
@@ -27423,10 +27413,10 @@
         <v>20207577</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E124" s="6">
         <v>4.5</v>
@@ -27443,10 +27433,10 @@
         <v>20207534</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E125" s="6">
         <v>4.5</v>
@@ -27463,10 +27453,10 @@
         <v>20207518</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E126" s="6">
         <v>4</v>
@@ -27483,10 +27473,10 @@
         <v>20207039</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E127" s="6">
         <v>4</v>
@@ -27503,10 +27493,10 @@
         <v>20207043</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E128" s="6">
         <v>4</v>
@@ -27523,10 +27513,10 @@
         <v>20207555</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E129" s="6">
         <v>4</v>
@@ -27543,10 +27533,10 @@
         <v>20207529</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E130" s="6">
         <v>4.5</v>
@@ -27563,10 +27553,10 @@
         <v>20207502</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E131" s="6">
         <v>5</v>
@@ -27583,10 +27573,10 @@
         <v>20207011</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E132" s="6">
         <v>6.5</v>
@@ -27603,10 +27593,10 @@
         <v>20207063</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E133" s="6">
         <v>4.5</v>
@@ -27623,10 +27613,10 @@
         <v>20207053</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E134" s="6">
         <v>4</v>
@@ -27643,10 +27633,10 @@
         <v>20207514</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E135" s="6">
         <v>4</v>
@@ -27663,10 +27653,10 @@
         <v>20207527</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E136" s="6">
         <v>4</v>
@@ -27683,10 +27673,10 @@
         <v>20207547</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E137" s="6">
         <v>4</v>
@@ -27703,10 +27693,10 @@
         <v>20207565</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E138" s="6">
         <v>4</v>
@@ -27723,10 +27713,10 @@
         <v>20207018</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E139" s="6">
         <v>4</v>
@@ -27743,10 +27733,10 @@
         <v>20207587</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E140" s="6">
         <v>5</v>
@@ -27763,10 +27753,10 @@
         <v>20207065</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E141" s="6">
         <v>4</v>
@@ -27783,10 +27773,10 @@
         <v>20207574</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E142" s="6">
         <v>7</v>
@@ -27803,10 +27793,10 @@
         <v>20207517</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E143" s="6">
         <v>4.5</v>
@@ -27823,10 +27813,10 @@
         <v>20207570</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E144" s="6">
         <v>4.5</v>
@@ -27843,10 +27833,10 @@
         <v>20207549</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E145" s="6">
         <v>4</v>
@@ -27863,10 +27853,10 @@
         <v>20207532</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E146" s="6">
         <v>4</v>
@@ -27883,10 +27873,10 @@
         <v>20207064</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E147" s="6">
         <v>4</v>
@@ -27903,10 +27893,10 @@
         <v>20207029</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E148" s="6">
         <v>4.5</v>
@@ -27923,10 +27913,10 @@
         <v>20207545</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E149" s="6">
         <v>4</v>
@@ -27943,10 +27933,10 @@
         <v>20207541</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E150" s="6">
         <v>6.5</v>
@@ -27963,10 +27953,10 @@
         <v>20207024</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E151" s="6">
         <v>8.5</v>
@@ -27983,10 +27973,10 @@
         <v>20207058</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E152" s="6">
         <v>4</v>
@@ -28003,10 +27993,10 @@
         <v>20207034</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E153" s="6">
         <v>4</v>
@@ -28023,10 +28013,10 @@
         <v>20207008</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E154" s="6">
         <v>4</v>
@@ -28043,10 +28033,10 @@
         <v>20207020</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E155" s="6">
         <v>6</v>
@@ -28063,10 +28053,10 @@
         <v>20207564</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E156" s="6">
         <v>4</v>
@@ -28083,10 +28073,10 @@
         <v>20207068</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E157" s="6">
         <v>4.5</v>
@@ -28103,10 +28093,10 @@
         <v>20207019</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E158" s="6">
         <v>4</v>
@@ -28123,10 +28113,10 @@
         <v>20207012</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E159" s="6">
         <v>5.5</v>
@@ -28143,10 +28133,10 @@
         <v>20207006</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E160" s="6">
         <v>4</v>
@@ -28163,10 +28153,10 @@
         <v>20207004</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E161" s="6">
         <v>4</v>
@@ -28183,10 +28173,10 @@
         <v>20207033</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E162" s="6">
         <v>7.5</v>
@@ -28200,13 +28190,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E163" s="6">
         <v>2.5</v>
@@ -28220,13 +28210,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E164" s="6">
         <v>4</v>
@@ -28240,13 +28230,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E165" s="6">
         <v>4</v>
@@ -28260,13 +28250,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E166" s="6">
         <v>8.5</v>
@@ -28280,13 +28270,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E167" s="6">
         <v>8</v>
@@ -28300,13 +28290,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E168" s="6">
         <v>3</v>
@@ -28320,13 +28310,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E169" s="6">
         <v>8</v>
@@ -28340,13 +28330,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E170" s="6">
         <v>6</v>
@@ -28360,13 +28350,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E171" s="6">
         <v>9</v>
@@ -28380,13 +28370,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E172" s="6">
         <v>3.5</v>
@@ -28400,13 +28390,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E173" s="6">
         <v>5</v>
@@ -28420,13 +28410,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E174" s="6">
         <v>5</v>
@@ -28440,13 +28430,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E175" s="6">
         <v>5</v>
@@ -28460,13 +28450,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E176" s="6">
         <v>4.5</v>
@@ -28480,13 +28470,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E177" s="6">
         <v>8</v>
@@ -28500,13 +28490,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E178" s="6">
         <v>5</v>
@@ -28520,13 +28510,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E179" s="6">
         <v>5</v>
@@ -28540,13 +28530,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E180" s="6">
         <v>4</v>
@@ -28560,13 +28550,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E181" s="6">
         <v>6.5</v>
@@ -28580,13 +28570,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E182" s="6">
         <v>7</v>
@@ -28600,13 +28590,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E183" s="6">
         <v>5</v>
@@ -28620,13 +28610,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E184" s="6">
         <v>6.5</v>
@@ -28640,13 +28630,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E185" s="6">
         <v>4</v>
@@ -28660,13 +28650,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E186" s="6">
         <v>7</v>
@@ -28680,13 +28670,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E187" s="6">
         <v>6</v>
@@ -28700,13 +28690,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E188" s="6">
         <v>5</v>
@@ -28720,13 +28710,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E189" s="6">
         <v>9</v>
@@ -28740,13 +28730,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E190" s="6">
         <v>8</v>
@@ -28760,13 +28750,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E191" s="6">
         <v>3.5</v>
@@ -28780,13 +28770,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E192" s="6">
         <v>5</v>
@@ -28800,13 +28790,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E193" s="6">
         <v>5</v>
@@ -28820,13 +28810,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E194" s="6">
         <v>4.5</v>
@@ -28840,13 +28830,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E195" s="6">
         <v>5</v>
@@ -28860,13 +28850,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E196" s="6">
         <v>5.5</v>
@@ -28880,13 +28870,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E197" s="6">
         <v>5.5</v>
@@ -28900,13 +28890,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E198" s="6">
         <v>5</v>
@@ -28920,13 +28910,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E199" s="6">
         <v>6</v>
@@ -28940,13 +28930,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E200" s="6">
         <v>5</v>
@@ -28960,13 +28950,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E201" s="6">
         <v>6</v>
@@ -28980,13 +28970,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E202" s="6">
         <v>7</v>
@@ -29000,13 +28990,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E203" s="6">
         <v>5.5</v>
@@ -29020,13 +29010,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E204" s="6">
         <v>6.5</v>
@@ -29040,13 +29030,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E205" s="6">
         <v>5.5</v>
@@ -29060,13 +29050,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E206" s="6">
         <v>6</v>
@@ -29080,13 +29070,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E207" s="6">
         <v>4</v>
@@ -29100,13 +29090,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E208" s="6">
         <v>5</v>
@@ -29120,13 +29110,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E209" s="6">
         <v>5</v>
@@ -29140,13 +29130,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E210" s="6">
         <v>5</v>
@@ -29160,13 +29150,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E211" s="6">
         <v>4</v>
@@ -29180,13 +29170,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E212" s="6">
         <v>9</v>
@@ -29200,13 +29190,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E213" s="6">
         <v>6.5</v>
@@ -29220,13 +29210,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E214" s="6">
         <v>6</v>
@@ -29240,13 +29230,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E215" s="6">
         <v>5.5</v>
@@ -29260,13 +29250,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E216" s="6">
         <v>4</v>
@@ -29280,13 +29270,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E217" s="6">
         <v>7</v>
@@ -29300,13 +29290,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E218" s="6">
         <v>6</v>
@@ -29320,13 +29310,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E219" s="6">
         <v>6</v>
@@ -29340,13 +29330,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E220" s="6">
         <v>8</v>
@@ -29360,13 +29350,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E221" s="6">
         <v>4</v>
@@ -29380,13 +29370,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E222" s="6">
         <v>4</v>
@@ -29400,13 +29390,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E223" s="6">
         <v>8</v>
@@ -29420,13 +29410,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E224" s="6">
         <v>6.5</v>
@@ -29440,13 +29430,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E225" s="6">
         <v>5</v>
@@ -29460,13 +29450,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E226" s="6">
         <v>4.5</v>
@@ -29480,13 +29470,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E227" s="6">
         <v>5.5</v>
@@ -29500,13 +29490,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E228" s="6">
         <v>5</v>
@@ -29520,13 +29510,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E229" s="6">
         <v>5.5</v>
@@ -29540,13 +29530,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E230" s="6">
         <v>5</v>
@@ -29560,13 +29550,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E231" s="6">
         <v>6.5</v>
@@ -29580,13 +29570,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E232" s="6">
         <v>6.5</v>
@@ -29600,13 +29590,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E233" s="6">
         <v>6</v>
@@ -29620,13 +29610,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E234" s="6">
         <v>5.5</v>
@@ -29640,13 +29630,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E235" s="6">
         <v>4.5</v>
@@ -29660,13 +29650,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E236" s="15">
         <v>2</v>
@@ -29680,13 +29670,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E237" s="15">
         <v>2</v>
@@ -29700,13 +29690,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E238" s="15">
         <v>4</v>
@@ -29720,13 +29710,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E239" s="15">
         <v>3.5</v>
@@ -29740,13 +29730,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E240" s="15">
         <v>7.5</v>
@@ -29760,13 +29750,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E241" s="15">
         <v>6</v>
@@ -29780,13 +29770,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E242" s="15">
         <v>7</v>
@@ -29800,13 +29790,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E243" s="15">
         <v>7</v>
@@ -29820,13 +29810,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E244" s="15">
         <v>4.5</v>
@@ -29840,13 +29830,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E245" s="15">
         <v>6</v>
@@ -29860,13 +29850,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E246" s="15">
         <v>8</v>
@@ -29880,13 +29870,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E247" s="15">
         <v>1.5</v>
@@ -29900,13 +29890,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E248" s="15">
         <v>4</v>
@@ -29920,13 +29910,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E249" s="15">
         <v>4</v>
@@ -29940,13 +29930,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E250" s="15">
         <v>7.5</v>
@@ -29960,13 +29950,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E251" s="15">
         <v>5</v>
@@ -29980,13 +29970,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E252" s="15">
         <v>4</v>
@@ -30000,13 +29990,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E253" s="15">
         <v>4</v>
@@ -30020,13 +30010,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E254" s="15">
         <v>7</v>
@@ -30040,13 +30030,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E255" s="15">
         <v>8</v>
@@ -30060,13 +30050,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E256" s="15">
         <v>7</v>
@@ -30080,13 +30070,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E257" s="15">
         <v>3.5</v>
@@ -30100,13 +30090,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E258" s="15">
         <v>1</v>
@@ -30120,13 +30110,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E259" s="15">
         <v>8.5</v>
@@ -30140,13 +30130,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E260" s="15">
         <v>7.5</v>
@@ -30160,13 +30150,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E261" s="15">
         <v>7.5</v>
@@ -30180,13 +30170,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E262" s="15">
         <v>4</v>
@@ -30200,13 +30190,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E263" s="15">
         <v>6.5</v>
@@ -30220,13 +30210,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E264" s="15">
         <v>6</v>
@@ -30240,13 +30230,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E265" s="15">
         <v>6</v>
@@ -30260,13 +30250,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E266" s="15">
         <v>6.5</v>
@@ -30280,13 +30270,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E267" s="15">
         <v>9</v>
@@ -30300,13 +30290,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E268" s="15">
         <v>7</v>
@@ -30320,13 +30310,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E269" s="15">
         <v>6.5</v>
@@ -30340,13 +30330,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E270" s="15">
         <v>3.5</v>
@@ -30360,13 +30350,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E271" s="15">
         <v>7.5</v>
@@ -30380,13 +30370,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E272" s="15">
         <v>6</v>
@@ -30400,13 +30390,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E273" s="15">
         <v>6.5</v>
@@ -30420,13 +30410,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E274" s="15">
         <v>9.5</v>
@@ -30440,13 +30430,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E275" s="15">
         <v>5</v>
@@ -30460,13 +30450,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E276" s="15">
         <v>5.5</v>
@@ -30480,13 +30470,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E277" s="15">
         <v>6.5</v>
@@ -30500,13 +30490,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E278" s="15">
         <v>6</v>
@@ -30520,13 +30510,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E279" s="15">
         <v>3.5</v>
@@ -30540,13 +30530,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E280" s="15">
         <v>6</v>
@@ -30560,13 +30550,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E281" s="15">
         <v>6</v>
@@ -30580,13 +30570,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E282" s="15">
         <v>7</v>
@@ -30600,13 +30590,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E283" s="15">
         <v>5.5</v>
@@ -30620,13 +30610,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E284" s="15">
         <v>5.5</v>
@@ -30640,13 +30630,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E285" s="15">
         <v>7</v>
@@ -30660,13 +30650,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E286" s="15">
         <v>5</v>
@@ -30680,13 +30670,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E287" s="15">
         <v>2.5</v>
@@ -30700,13 +30690,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E288" s="15">
         <v>5</v>
@@ -30720,13 +30710,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E289" s="15">
         <v>6.5</v>
@@ -30740,13 +30730,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E290" s="15">
         <v>3</v>
@@ -30760,13 +30750,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E291" s="15">
         <v>2.5</v>
@@ -30780,13 +30770,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E292" s="15">
         <v>0.5</v>
@@ -30800,13 +30790,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E293" s="15">
         <v>4.5</v>
@@ -30820,13 +30810,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E294" s="15">
         <v>5.5</v>
@@ -30840,13 +30830,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E295" s="15">
         <v>6.5</v>
@@ -30860,13 +30850,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E296" s="15">
         <v>4</v>
@@ -30880,13 +30870,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E297" s="15">
         <v>6.5</v>
@@ -30900,13 +30890,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E298" s="15">
         <v>4</v>
@@ -30920,13 +30910,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E299" s="15">
         <v>6.5</v>
@@ -30940,13 +30930,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E300" s="15">
         <v>4</v>
@@ -30960,13 +30950,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E301" s="15">
         <v>1.5</v>
@@ -30980,13 +30970,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E302" s="15">
         <v>5.5</v>
@@ -31000,13 +30990,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E303" s="15">
         <v>5.5</v>
@@ -31020,13 +31010,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E304" s="15">
         <v>4.5</v>
@@ -31040,13 +31030,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E305" s="15">
         <v>6</v>
@@ -31060,13 +31050,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E306" s="15">
         <v>8.5</v>
@@ -31080,13 +31070,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E307" s="15">
         <v>4</v>
@@ -31100,13 +31090,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E308" s="15">
         <v>6</v>
@@ -31120,13 +31110,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E309" s="15">
         <v>5.5</v>
@@ -31140,13 +31130,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E310" s="15">
         <v>6.5</v>
@@ -31160,13 +31150,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E311" s="15">
         <v>4.5</v>
@@ -31180,13 +31170,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E312" s="15">
         <v>7</v>
@@ -31200,13 +31190,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E313" s="15">
         <v>7</v>
@@ -31220,13 +31210,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E314" s="15">
         <v>4.5</v>
@@ -31240,13 +31230,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E315" s="15">
         <v>4</v>
@@ -31260,13 +31250,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E316" s="15">
         <v>7</v>
@@ -31280,13 +31270,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E317" s="15">
         <v>9</v>
@@ -31300,13 +31290,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E318" s="15">
         <v>6.5</v>
@@ -31320,13 +31310,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E319" s="15">
         <v>7.5</v>
@@ -31340,13 +31330,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E320" s="15">
         <v>6</v>
@@ -31360,13 +31350,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E321" s="15">
         <v>5.5</v>
@@ -31380,13 +31370,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E322" s="15">
         <v>7</v>
@@ -31400,13 +31390,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E323" s="15">
         <v>7</v>
@@ -31420,13 +31410,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E324" s="15">
         <v>5.5</v>
@@ -31440,13 +31430,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E325" s="15">
         <v>7</v>
@@ -31460,13 +31450,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E326" s="15">
         <v>5</v>
@@ -31480,13 +31470,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E327" s="15">
         <v>4.5</v>
@@ -31500,13 +31490,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E328" s="15">
         <v>4.5</v>
@@ -31520,13 +31510,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E329" s="15">
         <v>5.5</v>
@@ -31540,13 +31530,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E330" s="15">
         <v>7</v>
@@ -31560,13 +31550,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E331" s="15">
         <v>7</v>
@@ -31580,13 +31570,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E332" s="15">
         <v>5.5</v>
@@ -31600,13 +31590,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E333" s="15">
         <v>6</v>
@@ -31620,13 +31610,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E334" s="15">
         <v>6</v>
@@ -31640,13 +31630,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E335" s="15">
         <v>6</v>
@@ -31660,13 +31650,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E336" s="15">
         <v>5.5</v>
@@ -31680,13 +31670,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E337" s="15">
         <v>5.5</v>
@@ -31700,13 +31690,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E338" s="15">
         <v>5</v>
@@ -31720,13 +31710,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E339" s="15">
         <v>6</v>
@@ -31740,13 +31730,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E340" s="15">
         <v>3</v>
@@ -31760,13 +31750,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E341" s="15">
         <v>3</v>
@@ -31780,13 +31770,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E342" s="15">
         <v>3.5</v>
@@ -31800,13 +31790,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E343" s="15">
         <v>3.5</v>
@@ -31820,13 +31810,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E344" s="15">
         <v>6.5</v>
@@ -31840,13 +31830,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E345" s="15">
         <v>5</v>
@@ -31860,13 +31850,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E346" s="15">
         <v>7</v>
@@ -31880,13 +31870,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E347" s="15">
         <v>6</v>
@@ -31900,13 +31890,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E348" s="15">
         <v>7</v>
@@ -31920,13 +31910,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E349" s="15">
         <v>5</v>
@@ -31940,13 +31930,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E350" s="15">
         <v>6</v>
@@ -31960,13 +31950,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E351" s="15">
         <v>4.5</v>
@@ -31980,13 +31970,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E352" s="15">
         <v>3.5</v>
@@ -32000,13 +31990,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E353" s="15">
         <v>4</v>
@@ -32020,13 +32010,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E354" s="15">
         <v>9.5</v>
@@ -32040,13 +32030,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E355" s="15">
         <v>4</v>
@@ -32060,13 +32050,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E356" s="15">
         <v>4.5</v>
@@ -32080,13 +32070,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E357" s="15">
         <v>5</v>
@@ -32100,13 +32090,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E358" s="15">
         <v>5</v>
@@ -32120,13 +32110,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E359" s="15">
         <v>5.5</v>
@@ -32140,13 +32130,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E360" s="15">
         <v>1.5</v>
@@ -32160,13 +32150,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E361" s="15">
         <v>3</v>
@@ -32180,13 +32170,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E362" s="15">
         <v>4.5</v>
@@ -32200,13 +32190,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E363" s="15">
         <v>4.5</v>
@@ -32220,13 +32210,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E364" s="15">
         <v>5.5</v>
@@ -32240,13 +32230,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E365" s="15">
         <v>5.5</v>
@@ -32260,13 +32250,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E366" s="15">
         <v>4.5</v>
